--- a/lab5/1/NEWDATA/pMOS_exp1.xlsx
+++ b/lab5/1/NEWDATA/pMOS_exp1.xlsx
@@ -2439,11 +2439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76233728"/>
-        <c:axId val="76232192"/>
+        <c:axId val="61822848"/>
+        <c:axId val="61824384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76233728"/>
+        <c:axId val="61822848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,13 +2453,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76232192"/>
+        <c:crossAx val="61824384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76232192"/>
+        <c:axId val="61824384"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2469,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76233728"/>
+        <c:crossAx val="61822848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2495,16 +2496,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
